--- a/data/trans_bre/Predimed_R3-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Predimed_R3-Habitat-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.5610042385364056</v>
+        <v>0.5610042385363972</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.0260696449142497</v>
+        <v>0.02606964491424931</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.805908051407007</v>
+        <v>-3.700682441075671</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.1617565723231667</v>
+        <v>-0.1475113881130844</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.869591477988087</v>
+        <v>4.896163953194332</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.2589249841560612</v>
+        <v>0.2608803211444201</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1.298324342465762</v>
+        <v>1.298324342465765</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.08294213512841214</v>
+        <v>0.08294213512841232</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.196706616602669</v>
+        <v>-2.264554636167989</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1276888618531746</v>
+        <v>-0.1278922296640271</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.855922839392047</v>
+        <v>4.824444202273834</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3566703228862466</v>
+        <v>0.3552431454988182</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6318646601938954</v>
+        <v>0.631864660193901</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.03627070122663998</v>
+        <v>0.03627070122664031</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.466368140227306</v>
+        <v>-3.313670562693286</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.1697420594701096</v>
+        <v>-0.171303105763883</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.580020536910743</v>
+        <v>4.468347558139683</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.3166565414788068</v>
+        <v>0.2976165831546406</v>
       </c>
     </row>
     <row r="13">
@@ -693,7 +693,7 @@
         <v>2.122769902185059</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.1233184034998628</v>
+        <v>0.1233184034998629</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.422046550476433</v>
+        <v>-1.231466694510001</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07234140826415125</v>
+        <v>-0.06821169608943931</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.446068346304362</v>
+        <v>5.388996910352483</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3539526416051489</v>
+        <v>0.3457352333474719</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1.293834256495024</v>
+        <v>1.293834256495027</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.07342780324593806</v>
+        <v>0.07342780324593824</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6253634411339025</v>
+        <v>-0.4114633293175156</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.03321578820165743</v>
+        <v>-0.02282608537472367</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.217176485056867</v>
+        <v>3.303756664424164</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.1944784918620848</v>
+        <v>0.1939441323531935</v>
       </c>
     </row>
     <row r="19">
